--- a/domain_files/ifdat/example/BSI_MFMC_M0_EXAMPLE.xlsx
+++ b/domain_files/ifdat/example/BSI_MFMC_M0_EXAMPLE.xlsx
@@ -686,7 +686,7 @@
     <row r="3" ht="40" customHeight="1">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>SOURCE_ORG</t>
+          <t>DOMAIN</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -698,7 +698,7 @@
     <row r="4" ht="40" customHeight="1">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>SOURCE_PERSON</t>
+          <t>CATEGORY</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -710,26 +710,18 @@
     <row r="5" ht="40" customHeight="1">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>CATEGORY</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>IFDAT</t>
-        </is>
-      </c>
+          <t>SOURCE_ORG</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr"/>
     </row>
     <row r="6" ht="40" customHeight="1">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>SUB_CATEGORY</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>BSI</t>
-        </is>
-      </c>
+          <t>SOURCE_PERSON</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -742,7 +734,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -753,7 +745,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>-</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -770,7 +762,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -787,7 +779,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -799,7 +791,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -811,208 +803,215 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A2</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>A3</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>A4</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A10</t>
+          <t>A5</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A20</t>
+          <t>A10</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A30</t>
+          <t>A20</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A_3</t>
+          <t>A30</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>A_3</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>M_2</t>
+          <t>M2</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>M_3</t>
+          <t>M_2</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>W2</t>
+          <t>M_3</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>W3</t>
+          <t>W2</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>W4</t>
+          <t>W3</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>W_2</t>
+          <t>W4</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>W_3</t>
+          <t>W_2</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>D_2</t>
+          <t>W_3</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>H2</t>
+          <t>D_2</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>H3</t>
+          <t>H2</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H3</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>OA</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>OM</t>
+          <t>OA</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>_O</t>
+          <t>OM</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>_U</t>
+          <t>_O</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
+        <is>
+          <t>_U</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>_Z</t>
         </is>
@@ -1972,7 +1971,7 @@
   </mergeCells>
   <dataValidations count="17">
     <dataValidation sqref="D4:D20" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>'SHARE_'!$A$1:$A$34</formula1>
+      <formula1>'SHARE_'!$A$1:$A$35</formula1>
     </dataValidation>
     <dataValidation sqref="M4:M20 O4:O20 Q4:Q20 S4:S20 U4:U20 W4:W20 Y4:Y20 AA4:AA20" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>'SHARE_'!$B$1:$B$4</formula1>
@@ -2036,7 +2035,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2047,7 +2046,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>-</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -2064,7 +2063,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2081,7 +2080,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2093,7 +2092,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -2105,208 +2104,215 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A2</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>A3</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>A4</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A10</t>
+          <t>A5</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A20</t>
+          <t>A10</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A30</t>
+          <t>A20</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A_3</t>
+          <t>A30</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>A_3</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>M_2</t>
+          <t>M2</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>M_3</t>
+          <t>M_2</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>W2</t>
+          <t>M_3</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>W3</t>
+          <t>W2</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>W4</t>
+          <t>W3</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>W_2</t>
+          <t>W4</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>W_3</t>
+          <t>W_2</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>D_2</t>
+          <t>W_3</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>H2</t>
+          <t>D_2</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>H3</t>
+          <t>H2</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H3</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>OA</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>OM</t>
+          <t>OA</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>_O</t>
+          <t>OM</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>_U</t>
+          <t>_O</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
+        <is>
+          <t>_U</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>_Z</t>
         </is>
@@ -3058,10 +3064,10 @@
   </mergeCells>
   <dataValidations count="14">
     <dataValidation sqref="D4:D20" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>'EXT_DERIVATIVE_'!$A$1:$A$34</formula1>
+      <formula1>'EXT_DERIVATIVE_'!$A$1:$A$35</formula1>
     </dataValidation>
     <dataValidation sqref="J4:J20" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>'EXT_DERIVATIVE_'!$B$1:$B$4</formula1>
+      <formula1>'EXT_DERIVATIVE_'!$B$1:$B$5</formula1>
     </dataValidation>
     <dataValidation sqref="K4:K20 M4:M20 O4:O20 Q4:Q20 S4:S20 U4:U20" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>'EXT_DERIVATIVE_'!$C$1:$C$4</formula1>
@@ -3113,7 +3119,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3124,12 +3130,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>-</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>MICRO_HEDGE</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -3146,12 +3152,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MACRO_HEDGE</t>
+          <t>MICRO_HEDGE</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -3168,12 +3174,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PORT_MGMNT</t>
+          <t>MACRO_HEDGE</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -3185,12 +3191,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SPECULATIVE</t>
+          <t>PORT_MGMNT</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -3202,208 +3208,220 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>SPECULATIVE</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A2</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>A3</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>A4</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A10</t>
+          <t>A5</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A20</t>
+          <t>A10</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A30</t>
+          <t>A20</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A_3</t>
+          <t>A30</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>A_3</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>M_2</t>
+          <t>M2</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>M_3</t>
+          <t>M_2</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>W2</t>
+          <t>M_3</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>W3</t>
+          <t>W2</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>W4</t>
+          <t>W3</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>W_2</t>
+          <t>W4</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>W_3</t>
+          <t>W_2</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>D_2</t>
+          <t>W_3</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>H2</t>
+          <t>D_2</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>H3</t>
+          <t>H2</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H3</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>OA</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>OM</t>
+          <t>OA</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>_O</t>
+          <t>OM</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>_U</t>
+          <t>_O</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
+        <is>
+          <t>_U</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>_Z</t>
         </is>
@@ -3949,10 +3967,10 @@
   </mergeCells>
   <dataValidations count="10">
     <dataValidation sqref="C4:C20" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>'OTC_DERIVATIVE_'!$A$1:$A$34</formula1>
+      <formula1>'OTC_DERIVATIVE_'!$A$1:$A$35</formula1>
     </dataValidation>
     <dataValidation sqref="G4:G20" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>'OTC_DERIVATIVE_'!$B$1:$B$4</formula1>
+      <formula1>'OTC_DERIVATIVE_'!$B$1:$B$5</formula1>
     </dataValidation>
     <dataValidation sqref="H4:H20 J4:J20 L4:L20 N4:N20" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>'OTC_DERIVATIVE_'!$C$1:$C$4</formula1>
@@ -3992,7 +4010,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4003,12 +4021,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>-</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>MICRO_HEDGE</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -4025,12 +4043,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MACRO_HEDGE</t>
+          <t>MICRO_HEDGE</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -4047,12 +4065,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PORT_MGMNT</t>
+          <t>MACRO_HEDGE</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -4064,12 +4082,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SPECULATIVE</t>
+          <t>PORT_MGMNT</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -4081,208 +4099,220 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>SPECULATIVE</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A2</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>A3</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>A4</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A10</t>
+          <t>A5</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A20</t>
+          <t>A10</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A30</t>
+          <t>A20</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A_3</t>
+          <t>A30</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>A_3</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>M_2</t>
+          <t>M2</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>M_3</t>
+          <t>M_2</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>W2</t>
+          <t>M_3</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>W3</t>
+          <t>W2</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>W4</t>
+          <t>W3</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>W_2</t>
+          <t>W4</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>W_3</t>
+          <t>W_2</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>D_2</t>
+          <t>W_3</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>H2</t>
+          <t>D_2</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>H3</t>
+          <t>H2</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H3</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>OA</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>OM</t>
+          <t>OA</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>_O</t>
+          <t>OM</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>_U</t>
+          <t>_O</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
+        <is>
+          <t>_U</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>_Z</t>
         </is>
@@ -5006,7 +5036,7 @@
   </mergeCells>
   <dataValidations count="13">
     <dataValidation sqref="C4:C20" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>'RESIDENTIAL_RE_'!$A$1:$A$34</formula1>
+      <formula1>'RESIDENTIAL_RE_'!$A$1:$A$35</formula1>
     </dataValidation>
     <dataValidation sqref="J4:J20 L4:L20 N4:N20 P4:P20 R4:R20 T4:T20" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>'RESIDENTIAL_RE_'!$B$1:$B$4</formula1>
@@ -5058,7 +5088,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5069,7 +5099,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>-</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -5086,7 +5116,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -5103,7 +5133,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -5115,7 +5145,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -5127,208 +5157,215 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A2</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>A3</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>A4</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A10</t>
+          <t>A5</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A20</t>
+          <t>A10</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A30</t>
+          <t>A20</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A_3</t>
+          <t>A30</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>A_3</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>M_2</t>
+          <t>M2</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>M_3</t>
+          <t>M_2</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>W2</t>
+          <t>M_3</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>W3</t>
+          <t>W2</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>W4</t>
+          <t>W3</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>W_2</t>
+          <t>W4</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>W_3</t>
+          <t>W_2</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>D_2</t>
+          <t>W_3</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>H2</t>
+          <t>D_2</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>H3</t>
+          <t>H2</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H3</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>OA</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>OM</t>
+          <t>OA</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>_O</t>
+          <t>OM</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>_U</t>
+          <t>_O</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
+        <is>
+          <t>_U</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>_Z</t>
         </is>
@@ -6052,7 +6089,7 @@
   </mergeCells>
   <dataValidations count="13">
     <dataValidation sqref="C4:C20" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>'COMMERCIAL_RE_'!$A$1:$A$34</formula1>
+      <formula1>'COMMERCIAL_RE_'!$A$1:$A$35</formula1>
     </dataValidation>
     <dataValidation sqref="J4:J20 L4:L20 N4:N20 P4:P20 R4:R20 T4:T20" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>'COMMERCIAL_RE_'!$B$1:$B$4</formula1>
@@ -6301,7 +6338,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6312,7 +6349,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>-</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -6329,7 +6366,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -6346,7 +6383,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -6358,7 +6395,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -6370,208 +6407,215 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A2</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>A3</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>A4</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A10</t>
+          <t>A5</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A20</t>
+          <t>A10</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A30</t>
+          <t>A20</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A_3</t>
+          <t>A30</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>A_3</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>M_2</t>
+          <t>M2</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>M_3</t>
+          <t>M_2</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>W2</t>
+          <t>M_3</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>W3</t>
+          <t>W2</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>W4</t>
+          <t>W3</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>W_2</t>
+          <t>W4</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>W_3</t>
+          <t>W_2</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>D_2</t>
+          <t>W_3</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>H2</t>
+          <t>D_2</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>H3</t>
+          <t>H2</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H3</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>OA</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>OM</t>
+          <t>OA</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>_O</t>
+          <t>OM</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>_U</t>
+          <t>_O</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
+        <is>
+          <t>_U</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>_Z</t>
         </is>
@@ -7351,13 +7395,13 @@
   </mergeCells>
   <dataValidations count="15">
     <dataValidation sqref="A4:A20" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>'REM_FIXED_'!$A$1:$A$13</formula1>
+      <formula1>'REM_FIXED_'!$A$1:$A$14</formula1>
     </dataValidation>
     <dataValidation sqref="B4:B20" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>'REM_FIXED_'!$B$1:$B$103</formula1>
     </dataValidation>
     <dataValidation sqref="E4:E20" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>'REM_FIXED_'!$C$1:$C$34</formula1>
+      <formula1>'REM_FIXED_'!$C$1:$C$35</formula1>
     </dataValidation>
     <dataValidation sqref="L4:L20 N4:N20 P4:P20 R4:R20 T4:T20 V4:V20" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>'REM_FIXED_'!$D$1:$D$4</formula1>
@@ -7420,7 +7464,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>N1131</t>
+          <t>-</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -7430,7 +7474,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -7447,7 +7491,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>N1132</t>
+          <t>N1131</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -7457,7 +7501,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -7474,7 +7518,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>N1139</t>
+          <t>N1132</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -7484,7 +7528,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -7496,7 +7540,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>N114</t>
+          <t>N1139</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -7506,7 +7550,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -7518,7 +7562,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>N115</t>
+          <t>N114</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -7528,14 +7572,14 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>N1171</t>
+          <t>N115</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -7545,14 +7589,14 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>N1172</t>
+          <t>N1171</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -7562,14 +7606,14 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>N1173</t>
+          <t>N1172</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -7579,14 +7623,14 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>N1174</t>
+          <t>N1173</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -7596,14 +7640,14 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>N1179</t>
+          <t>N1174</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -7613,14 +7657,14 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>N131</t>
+          <t>N1179</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -7630,14 +7674,14 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A2</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>N132</t>
+          <t>N131</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -7647,36 +7691,41 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>A3</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>N132</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>BR</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>N133</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>BS</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
         <is>
           <t>A5</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>BS</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>A10</t>
         </is>
       </c>
     </row>
@@ -7688,7 +7737,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>A20</t>
+          <t>A10</t>
         </is>
       </c>
     </row>
@@ -7700,7 +7749,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>A30</t>
+          <t>A20</t>
         </is>
       </c>
     </row>
@@ -7712,7 +7761,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>A_3</t>
+          <t>A30</t>
         </is>
       </c>
     </row>
@@ -7724,7 +7773,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>A_3</t>
         </is>
       </c>
     </row>
@@ -7736,7 +7785,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>M_2</t>
+          <t>M2</t>
         </is>
       </c>
     </row>
@@ -7748,7 +7797,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>M_3</t>
+          <t>M_2</t>
         </is>
       </c>
     </row>
@@ -7760,7 +7809,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>W2</t>
+          <t>M_3</t>
         </is>
       </c>
     </row>
@@ -7772,7 +7821,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>W3</t>
+          <t>W2</t>
         </is>
       </c>
     </row>
@@ -7784,7 +7833,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>W4</t>
+          <t>W3</t>
         </is>
       </c>
     </row>
@@ -7796,7 +7845,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>W_2</t>
+          <t>W4</t>
         </is>
       </c>
     </row>
@@ -7808,7 +7857,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>W_3</t>
+          <t>W_2</t>
         </is>
       </c>
     </row>
@@ -7820,7 +7869,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>D_2</t>
+          <t>W_3</t>
         </is>
       </c>
     </row>
@@ -7832,7 +7881,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>H2</t>
+          <t>D_2</t>
         </is>
       </c>
     </row>
@@ -7844,7 +7893,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>H3</t>
+          <t>H2</t>
         </is>
       </c>
     </row>
@@ -7856,7 +7905,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H3</t>
         </is>
       </c>
     </row>
@@ -7868,7 +7917,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>OA</t>
+          <t>I</t>
         </is>
       </c>
     </row>
@@ -7880,7 +7929,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>OM</t>
+          <t>OA</t>
         </is>
       </c>
     </row>
@@ -7892,7 +7941,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>_O</t>
+          <t>OM</t>
         </is>
       </c>
     </row>
@@ -7904,7 +7953,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>_U</t>
+          <t>_O</t>
         </is>
       </c>
     </row>
@@ -7916,7 +7965,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>_Z</t>
+          <t>_U</t>
         </is>
       </c>
     </row>
@@ -7924,6 +7973,11 @@
       <c r="B35" t="inlineStr">
         <is>
           <t>FR</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>_Z</t>
         </is>
       </c>
     </row>
@@ -21754,7 +21808,7 @@
   </mergeCells>
   <dataValidations count="13">
     <dataValidation sqref="D4:D20" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>'LIAB_DEBT_'!$A$1:$A$34</formula1>
+      <formula1>'LIAB_DEBT_'!$A$1:$A$35</formula1>
     </dataValidation>
     <dataValidation sqref="K4:K20 M4:M20 O4:O20 Q4:Q20 S4:S20 U4:U20" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>'LIAB_DEBT_'!$B$1:$B$4</formula1>
@@ -21806,7 +21860,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21817,7 +21871,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>-</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -21834,7 +21888,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -21851,7 +21905,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -21863,7 +21917,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -21875,208 +21929,215 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A2</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>A3</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>A4</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A10</t>
+          <t>A5</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A20</t>
+          <t>A10</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A30</t>
+          <t>A20</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A_3</t>
+          <t>A30</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>A_3</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>M_2</t>
+          <t>M2</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>M_3</t>
+          <t>M_2</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>W2</t>
+          <t>M_3</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>W3</t>
+          <t>W2</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>W4</t>
+          <t>W3</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>W_2</t>
+          <t>W4</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>W_3</t>
+          <t>W_2</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>D_2</t>
+          <t>W_3</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>H2</t>
+          <t>D_2</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>H3</t>
+          <t>H2</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H3</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>OA</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>OM</t>
+          <t>OA</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>_O</t>
+          <t>OM</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>_U</t>
+          <t>_O</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
+        <is>
+          <t>_U</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>_Z</t>
         </is>
@@ -36193,7 +36254,7 @@
   </mergeCells>
   <dataValidations count="11">
     <dataValidation sqref="D4:D20" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>'HOLDER_'!$A$1:$A$34</formula1>
+      <formula1>'HOLDER_'!$A$1:$A$35</formula1>
     </dataValidation>
     <dataValidation sqref="J4:J20 L4:L20 N4:N20 P4:P20 R4:R20" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>'HOLDER_'!$B$1:$B$4</formula1>
@@ -36239,7 +36300,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36250,7 +36311,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>-</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -36267,7 +36328,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -36284,7 +36345,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -36296,7 +36357,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -36308,208 +36369,215 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A2</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>A3</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>A4</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A10</t>
+          <t>A5</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A20</t>
+          <t>A10</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A30</t>
+          <t>A20</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A_3</t>
+          <t>A30</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>A_3</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>M_2</t>
+          <t>M2</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>M_3</t>
+          <t>M_2</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>W2</t>
+          <t>M_3</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>W3</t>
+          <t>W2</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>W4</t>
+          <t>W3</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>W_2</t>
+          <t>W4</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>W_3</t>
+          <t>W_2</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>D_2</t>
+          <t>W_3</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>H2</t>
+          <t>D_2</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>H3</t>
+          <t>H2</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H3</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>OA</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>OM</t>
+          <t>OA</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>_O</t>
+          <t>OM</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>_U</t>
+          <t>_O</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
+        <is>
+          <t>_U</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>_Z</t>
         </is>
@@ -39098,7 +39166,7 @@
   </mergeCells>
   <dataValidations count="21">
     <dataValidation sqref="D4:D20" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>'ASSET_DEBT_'!$A$1:$A$34</formula1>
+      <formula1>'ASSET_DEBT_'!$A$1:$A$35</formula1>
     </dataValidation>
     <dataValidation sqref="O4:O20 Q4:Q20 S4:S20 U4:U20 W4:W20 Y4:Y20 AA4:AA20 AC4:AC20 AE4:AE20 AG4:AG20" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>'ASSET_DEBT_'!$B$1:$B$4</formula1>

--- a/domain_files/ifdat/example/BSI_MFMC_M0_EXAMPLE.xlsx
+++ b/domain_files/ifdat/example/BSI_MFMC_M0_EXAMPLE.xlsx
@@ -35763,7 +35763,7 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>I_100_H1</t>
+          <t>I_GRMFMC000_H1</t>
         </is>
       </c>
       <c r="C4" s="16" t="n">
@@ -35808,7 +35808,7 @@
       </c>
       <c r="B5" s="12" t="inlineStr">
         <is>
-          <t>I_100_H2</t>
+          <t>I_GRMFMC000_H2</t>
         </is>
       </c>
       <c r="C5" s="16" t="n">
@@ -36938,7 +36938,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -36954,18 +36954,12 @@
     <col width="13.5" customWidth="1" min="3" max="3"/>
     <col width="13.5" customWidth="1" min="4" max="4"/>
     <col width="13.5" customWidth="1" min="5" max="5"/>
-    <col width="13.5" customWidth="1" min="6" max="6"/>
-    <col width="13.5" customWidth="1" min="7" max="7"/>
-    <col width="10.8" customWidth="1" min="8" max="8"/>
-    <col width="9.450000000000001" customWidth="1" min="9" max="9"/>
-    <col width="13.5" customWidth="1" min="10" max="10"/>
-    <col width="13.5" customWidth="1" min="11" max="11"/>
-    <col width="10.8" customWidth="1" min="12" max="12"/>
-    <col width="10.8" customWidth="1" min="13" max="13"/>
-    <col width="10.8" customWidth="1" min="14" max="14"/>
-    <col width="9.450000000000001" customWidth="1" min="15" max="15"/>
-    <col width="13.5" customWidth="1" min="16" max="16"/>
-    <col width="13.5" customWidth="1" min="17" max="17"/>
+    <col width="10.8" customWidth="1" min="6" max="6"/>
+    <col width="9.450000000000001" customWidth="1" min="7" max="7"/>
+    <col width="13.5" customWidth="1" min="8" max="8"/>
+    <col width="13.5" customWidth="1" min="9" max="9"/>
+    <col width="10.8" customWidth="1" min="10" max="10"/>
+    <col width="10.8" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1" ht="60" customHeight="1">
@@ -36981,23 +36975,17 @@
         </is>
       </c>
       <c r="D1" s="7" t="n"/>
-      <c r="E1" s="7" t="n"/>
-      <c r="F1" s="7" t="n"/>
-      <c r="G1" s="8" t="n"/>
-      <c r="H1" s="10" t="inlineStr">
+      <c r="E1" s="8" t="n"/>
+      <c r="F1" s="10" t="inlineStr">
         <is>
           <t>ATTRS</t>
         </is>
       </c>
+      <c r="G1" s="7" t="n"/>
+      <c r="H1" s="7" t="n"/>
       <c r="I1" s="7" t="n"/>
       <c r="J1" s="7" t="n"/>
-      <c r="K1" s="7" t="n"/>
-      <c r="L1" s="7" t="n"/>
-      <c r="M1" s="7" t="n"/>
-      <c r="N1" s="7" t="n"/>
-      <c r="O1" s="7" t="n"/>
-      <c r="P1" s="7" t="n"/>
-      <c r="Q1" s="8" t="n"/>
+      <c r="K1" s="8" t="n"/>
     </row>
     <row r="2" ht="60" customHeight="1">
       <c r="A2" s="11" t="inlineStr">
@@ -37012,39 +37000,25 @@
         </is>
       </c>
       <c r="D2" s="7" t="n"/>
-      <c r="E2" s="7" t="n"/>
-      <c r="F2" s="7" t="n"/>
+      <c r="E2" s="8" t="n"/>
+      <c r="F2" s="10" t="inlineStr">
+        <is>
+          <t>STCK</t>
+        </is>
+      </c>
       <c r="G2" s="8" t="n"/>
       <c r="H2" s="10" t="inlineStr">
         <is>
-          <t>STCK</t>
+          <t>EUR_STCK</t>
         </is>
       </c>
       <c r="I2" s="8" t="n"/>
       <c r="J2" s="10" t="inlineStr">
         <is>
-          <t>EUR_STCK</t>
+          <t>ACCRLS</t>
         </is>
       </c>
       <c r="K2" s="8" t="n"/>
-      <c r="L2" s="10" t="inlineStr">
-        <is>
-          <t>ACCRLS</t>
-        </is>
-      </c>
-      <c r="M2" s="8" t="n"/>
-      <c r="N2" s="10" t="inlineStr">
-        <is>
-          <t>ARRRS</t>
-        </is>
-      </c>
-      <c r="O2" s="8" t="n"/>
-      <c r="P2" s="10" t="inlineStr">
-        <is>
-          <t>WRT_OFFS</t>
-        </is>
-      </c>
-      <c r="Q2" s="8" t="n"/>
     </row>
     <row r="3" ht="60" customHeight="1">
       <c r="A3" s="11" t="inlineStr">
@@ -37072,14 +37046,14 @@
           <t>ACCRLS</t>
         </is>
       </c>
-      <c r="F3" s="9" t="inlineStr">
-        <is>
-          <t>ARRRS</t>
-        </is>
-      </c>
-      <c r="G3" s="9" t="inlineStr">
-        <is>
-          <t>WRT_OFFS</t>
+      <c r="F3" s="10" t="inlineStr">
+        <is>
+          <t>STATUS</t>
+        </is>
+      </c>
+      <c r="G3" s="10" t="inlineStr">
+        <is>
+          <t>CONF</t>
         </is>
       </c>
       <c r="H3" s="10" t="inlineStr">
@@ -37098,36 +37072,6 @@
         </is>
       </c>
       <c r="K3" s="10" t="inlineStr">
-        <is>
-          <t>CONF</t>
-        </is>
-      </c>
-      <c r="L3" s="10" t="inlineStr">
-        <is>
-          <t>STATUS</t>
-        </is>
-      </c>
-      <c r="M3" s="10" t="inlineStr">
-        <is>
-          <t>CONF</t>
-        </is>
-      </c>
-      <c r="N3" s="10" t="inlineStr">
-        <is>
-          <t>STATUS</t>
-        </is>
-      </c>
-      <c r="O3" s="10" t="inlineStr">
-        <is>
-          <t>CONF</t>
-        </is>
-      </c>
-      <c r="P3" s="10" t="inlineStr">
-        <is>
-          <t>STATUS</t>
-        </is>
-      </c>
-      <c r="Q3" s="10" t="inlineStr">
         <is>
           <t>CONF</t>
         </is>
@@ -37136,7 +37080,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>I_100_GRAK1_1</t>
+          <t>GR8801101230000012300302300</t>
         </is>
       </c>
       <c r="B4" s="16" t="n">
@@ -37151,22 +37095,12 @@
       <c r="E4" s="13" t="n">
         <v>7.78</v>
       </c>
-      <c r="F4" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="13" t="n">
-        <v>0</v>
-      </c>
+      <c r="F4" s="14" t="inlineStr"/>
+      <c r="G4" s="14" t="inlineStr"/>
       <c r="H4" s="14" t="inlineStr"/>
       <c r="I4" s="14" t="inlineStr"/>
       <c r="J4" s="14" t="inlineStr"/>
       <c r="K4" s="14" t="inlineStr"/>
-      <c r="L4" s="14" t="inlineStr"/>
-      <c r="M4" s="14" t="inlineStr"/>
-      <c r="N4" s="14" t="inlineStr"/>
-      <c r="O4" s="14" t="inlineStr"/>
-      <c r="P4" s="14" t="inlineStr"/>
-      <c r="Q4" s="14" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="12" t="n"/>
@@ -37174,18 +37108,12 @@
       <c r="C5" s="13" t="n"/>
       <c r="D5" s="13" t="n"/>
       <c r="E5" s="13" t="n"/>
-      <c r="F5" s="13" t="n"/>
-      <c r="G5" s="13" t="n"/>
+      <c r="F5" s="14" t="n"/>
+      <c r="G5" s="14" t="n"/>
       <c r="H5" s="14" t="n"/>
       <c r="I5" s="14" t="n"/>
       <c r="J5" s="14" t="n"/>
       <c r="K5" s="14" t="n"/>
-      <c r="L5" s="14" t="n"/>
-      <c r="M5" s="14" t="n"/>
-      <c r="N5" s="14" t="n"/>
-      <c r="O5" s="14" t="n"/>
-      <c r="P5" s="14" t="n"/>
-      <c r="Q5" s="14" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="12" t="n"/>
@@ -37193,18 +37121,12 @@
       <c r="C6" s="13" t="n"/>
       <c r="D6" s="13" t="n"/>
       <c r="E6" s="13" t="n"/>
-      <c r="F6" s="13" t="n"/>
-      <c r="G6" s="13" t="n"/>
+      <c r="F6" s="14" t="n"/>
+      <c r="G6" s="14" t="n"/>
       <c r="H6" s="14" t="n"/>
       <c r="I6" s="14" t="n"/>
       <c r="J6" s="14" t="n"/>
       <c r="K6" s="14" t="n"/>
-      <c r="L6" s="14" t="n"/>
-      <c r="M6" s="14" t="n"/>
-      <c r="N6" s="14" t="n"/>
-      <c r="O6" s="14" t="n"/>
-      <c r="P6" s="14" t="n"/>
-      <c r="Q6" s="14" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="12" t="n"/>
@@ -37212,18 +37134,12 @@
       <c r="C7" s="13" t="n"/>
       <c r="D7" s="13" t="n"/>
       <c r="E7" s="13" t="n"/>
-      <c r="F7" s="13" t="n"/>
-      <c r="G7" s="13" t="n"/>
+      <c r="F7" s="14" t="n"/>
+      <c r="G7" s="14" t="n"/>
       <c r="H7" s="14" t="n"/>
       <c r="I7" s="14" t="n"/>
       <c r="J7" s="14" t="n"/>
       <c r="K7" s="14" t="n"/>
-      <c r="L7" s="14" t="n"/>
-      <c r="M7" s="14" t="n"/>
-      <c r="N7" s="14" t="n"/>
-      <c r="O7" s="14" t="n"/>
-      <c r="P7" s="14" t="n"/>
-      <c r="Q7" s="14" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="12" t="n"/>
@@ -37231,18 +37147,12 @@
       <c r="C8" s="13" t="n"/>
       <c r="D8" s="13" t="n"/>
       <c r="E8" s="13" t="n"/>
-      <c r="F8" s="13" t="n"/>
-      <c r="G8" s="13" t="n"/>
+      <c r="F8" s="14" t="n"/>
+      <c r="G8" s="14" t="n"/>
       <c r="H8" s="14" t="n"/>
       <c r="I8" s="14" t="n"/>
       <c r="J8" s="14" t="n"/>
       <c r="K8" s="14" t="n"/>
-      <c r="L8" s="14" t="n"/>
-      <c r="M8" s="14" t="n"/>
-      <c r="N8" s="14" t="n"/>
-      <c r="O8" s="14" t="n"/>
-      <c r="P8" s="14" t="n"/>
-      <c r="Q8" s="14" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="12" t="n"/>
@@ -37250,18 +37160,12 @@
       <c r="C9" s="13" t="n"/>
       <c r="D9" s="13" t="n"/>
       <c r="E9" s="13" t="n"/>
-      <c r="F9" s="13" t="n"/>
-      <c r="G9" s="13" t="n"/>
+      <c r="F9" s="14" t="n"/>
+      <c r="G9" s="14" t="n"/>
       <c r="H9" s="14" t="n"/>
       <c r="I9" s="14" t="n"/>
       <c r="J9" s="14" t="n"/>
       <c r="K9" s="14" t="n"/>
-      <c r="L9" s="14" t="n"/>
-      <c r="M9" s="14" t="n"/>
-      <c r="N9" s="14" t="n"/>
-      <c r="O9" s="14" t="n"/>
-      <c r="P9" s="14" t="n"/>
-      <c r="Q9" s="14" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="12" t="n"/>
@@ -37269,18 +37173,12 @@
       <c r="C10" s="13" t="n"/>
       <c r="D10" s="13" t="n"/>
       <c r="E10" s="13" t="n"/>
-      <c r="F10" s="13" t="n"/>
-      <c r="G10" s="13" t="n"/>
+      <c r="F10" s="14" t="n"/>
+      <c r="G10" s="14" t="n"/>
       <c r="H10" s="14" t="n"/>
       <c r="I10" s="14" t="n"/>
       <c r="J10" s="14" t="n"/>
       <c r="K10" s="14" t="n"/>
-      <c r="L10" s="14" t="n"/>
-      <c r="M10" s="14" t="n"/>
-      <c r="N10" s="14" t="n"/>
-      <c r="O10" s="14" t="n"/>
-      <c r="P10" s="14" t="n"/>
-      <c r="Q10" s="14" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="12" t="n"/>
@@ -37288,18 +37186,12 @@
       <c r="C11" s="13" t="n"/>
       <c r="D11" s="13" t="n"/>
       <c r="E11" s="13" t="n"/>
-      <c r="F11" s="13" t="n"/>
-      <c r="G11" s="13" t="n"/>
+      <c r="F11" s="14" t="n"/>
+      <c r="G11" s="14" t="n"/>
       <c r="H11" s="14" t="n"/>
       <c r="I11" s="14" t="n"/>
       <c r="J11" s="14" t="n"/>
       <c r="K11" s="14" t="n"/>
-      <c r="L11" s="14" t="n"/>
-      <c r="M11" s="14" t="n"/>
-      <c r="N11" s="14" t="n"/>
-      <c r="O11" s="14" t="n"/>
-      <c r="P11" s="14" t="n"/>
-      <c r="Q11" s="14" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="12" t="n"/>
@@ -37307,18 +37199,12 @@
       <c r="C12" s="13" t="n"/>
       <c r="D12" s="13" t="n"/>
       <c r="E12" s="13" t="n"/>
-      <c r="F12" s="13" t="n"/>
-      <c r="G12" s="13" t="n"/>
+      <c r="F12" s="14" t="n"/>
+      <c r="G12" s="14" t="n"/>
       <c r="H12" s="14" t="n"/>
       <c r="I12" s="14" t="n"/>
       <c r="J12" s="14" t="n"/>
       <c r="K12" s="14" t="n"/>
-      <c r="L12" s="14" t="n"/>
-      <c r="M12" s="14" t="n"/>
-      <c r="N12" s="14" t="n"/>
-      <c r="O12" s="14" t="n"/>
-      <c r="P12" s="14" t="n"/>
-      <c r="Q12" s="14" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="12" t="n"/>
@@ -37326,18 +37212,12 @@
       <c r="C13" s="13" t="n"/>
       <c r="D13" s="13" t="n"/>
       <c r="E13" s="13" t="n"/>
-      <c r="F13" s="13" t="n"/>
-      <c r="G13" s="13" t="n"/>
+      <c r="F13" s="14" t="n"/>
+      <c r="G13" s="14" t="n"/>
       <c r="H13" s="14" t="n"/>
       <c r="I13" s="14" t="n"/>
       <c r="J13" s="14" t="n"/>
       <c r="K13" s="14" t="n"/>
-      <c r="L13" s="14" t="n"/>
-      <c r="M13" s="14" t="n"/>
-      <c r="N13" s="14" t="n"/>
-      <c r="O13" s="14" t="n"/>
-      <c r="P13" s="14" t="n"/>
-      <c r="Q13" s="14" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="12" t="n"/>
@@ -37345,18 +37225,12 @@
       <c r="C14" s="13" t="n"/>
       <c r="D14" s="13" t="n"/>
       <c r="E14" s="13" t="n"/>
-      <c r="F14" s="13" t="n"/>
-      <c r="G14" s="13" t="n"/>
+      <c r="F14" s="14" t="n"/>
+      <c r="G14" s="14" t="n"/>
       <c r="H14" s="14" t="n"/>
       <c r="I14" s="14" t="n"/>
       <c r="J14" s="14" t="n"/>
       <c r="K14" s="14" t="n"/>
-      <c r="L14" s="14" t="n"/>
-      <c r="M14" s="14" t="n"/>
-      <c r="N14" s="14" t="n"/>
-      <c r="O14" s="14" t="n"/>
-      <c r="P14" s="14" t="n"/>
-      <c r="Q14" s="14" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="12" t="n"/>
@@ -37364,18 +37238,12 @@
       <c r="C15" s="13" t="n"/>
       <c r="D15" s="13" t="n"/>
       <c r="E15" s="13" t="n"/>
-      <c r="F15" s="13" t="n"/>
-      <c r="G15" s="13" t="n"/>
+      <c r="F15" s="14" t="n"/>
+      <c r="G15" s="14" t="n"/>
       <c r="H15" s="14" t="n"/>
       <c r="I15" s="14" t="n"/>
       <c r="J15" s="14" t="n"/>
       <c r="K15" s="14" t="n"/>
-      <c r="L15" s="14" t="n"/>
-      <c r="M15" s="14" t="n"/>
-      <c r="N15" s="14" t="n"/>
-      <c r="O15" s="14" t="n"/>
-      <c r="P15" s="14" t="n"/>
-      <c r="Q15" s="14" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="12" t="n"/>
@@ -37383,18 +37251,12 @@
       <c r="C16" s="13" t="n"/>
       <c r="D16" s="13" t="n"/>
       <c r="E16" s="13" t="n"/>
-      <c r="F16" s="13" t="n"/>
-      <c r="G16" s="13" t="n"/>
+      <c r="F16" s="14" t="n"/>
+      <c r="G16" s="14" t="n"/>
       <c r="H16" s="14" t="n"/>
       <c r="I16" s="14" t="n"/>
       <c r="J16" s="14" t="n"/>
       <c r="K16" s="14" t="n"/>
-      <c r="L16" s="14" t="n"/>
-      <c r="M16" s="14" t="n"/>
-      <c r="N16" s="14" t="n"/>
-      <c r="O16" s="14" t="n"/>
-      <c r="P16" s="14" t="n"/>
-      <c r="Q16" s="14" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="12" t="n"/>
@@ -37402,18 +37264,12 @@
       <c r="C17" s="13" t="n"/>
       <c r="D17" s="13" t="n"/>
       <c r="E17" s="13" t="n"/>
-      <c r="F17" s="13" t="n"/>
-      <c r="G17" s="13" t="n"/>
+      <c r="F17" s="14" t="n"/>
+      <c r="G17" s="14" t="n"/>
       <c r="H17" s="14" t="n"/>
       <c r="I17" s="14" t="n"/>
       <c r="J17" s="14" t="n"/>
       <c r="K17" s="14" t="n"/>
-      <c r="L17" s="14" t="n"/>
-      <c r="M17" s="14" t="n"/>
-      <c r="N17" s="14" t="n"/>
-      <c r="O17" s="14" t="n"/>
-      <c r="P17" s="14" t="n"/>
-      <c r="Q17" s="14" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="12" t="n"/>
@@ -37421,18 +37277,12 @@
       <c r="C18" s="13" t="n"/>
       <c r="D18" s="13" t="n"/>
       <c r="E18" s="13" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="13" t="n"/>
+      <c r="F18" s="14" t="n"/>
+      <c r="G18" s="14" t="n"/>
       <c r="H18" s="14" t="n"/>
       <c r="I18" s="14" t="n"/>
       <c r="J18" s="14" t="n"/>
       <c r="K18" s="14" t="n"/>
-      <c r="L18" s="14" t="n"/>
-      <c r="M18" s="14" t="n"/>
-      <c r="N18" s="14" t="n"/>
-      <c r="O18" s="14" t="n"/>
-      <c r="P18" s="14" t="n"/>
-      <c r="Q18" s="14" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="12" t="n"/>
@@ -37440,18 +37290,12 @@
       <c r="C19" s="13" t="n"/>
       <c r="D19" s="13" t="n"/>
       <c r="E19" s="13" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="13" t="n"/>
+      <c r="F19" s="14" t="n"/>
+      <c r="G19" s="14" t="n"/>
       <c r="H19" s="14" t="n"/>
       <c r="I19" s="14" t="n"/>
       <c r="J19" s="14" t="n"/>
       <c r="K19" s="14" t="n"/>
-      <c r="L19" s="14" t="n"/>
-      <c r="M19" s="14" t="n"/>
-      <c r="N19" s="14" t="n"/>
-      <c r="O19" s="14" t="n"/>
-      <c r="P19" s="14" t="n"/>
-      <c r="Q19" s="14" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="12" t="n"/>
@@ -37459,18 +37303,12 @@
       <c r="C20" s="13" t="n"/>
       <c r="D20" s="13" t="n"/>
       <c r="E20" s="13" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="13" t="n"/>
+      <c r="F20" s="14" t="n"/>
+      <c r="G20" s="14" t="n"/>
       <c r="H20" s="14" t="n"/>
       <c r="I20" s="14" t="n"/>
       <c r="J20" s="14" t="n"/>
       <c r="K20" s="14" t="n"/>
-      <c r="L20" s="14" t="n"/>
-      <c r="M20" s="14" t="n"/>
-      <c r="N20" s="14" t="n"/>
-      <c r="O20" s="14" t="n"/>
-      <c r="P20" s="14" t="n"/>
-      <c r="Q20" s="14" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="12" t="n"/>
@@ -37478,18 +37316,12 @@
       <c r="C21" s="13" t="n"/>
       <c r="D21" s="13" t="n"/>
       <c r="E21" s="13" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="13" t="n"/>
+      <c r="F21" s="14" t="n"/>
+      <c r="G21" s="14" t="n"/>
       <c r="H21" s="14" t="n"/>
       <c r="I21" s="14" t="n"/>
       <c r="J21" s="14" t="n"/>
       <c r="K21" s="14" t="n"/>
-      <c r="L21" s="14" t="n"/>
-      <c r="M21" s="14" t="n"/>
-      <c r="N21" s="14" t="n"/>
-      <c r="O21" s="14" t="n"/>
-      <c r="P21" s="14" t="n"/>
-      <c r="Q21" s="14" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="12" t="n"/>
@@ -37497,18 +37329,12 @@
       <c r="C22" s="13" t="n"/>
       <c r="D22" s="13" t="n"/>
       <c r="E22" s="13" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="13" t="n"/>
+      <c r="F22" s="14" t="n"/>
+      <c r="G22" s="14" t="n"/>
       <c r="H22" s="14" t="n"/>
       <c r="I22" s="14" t="n"/>
       <c r="J22" s="14" t="n"/>
       <c r="K22" s="14" t="n"/>
-      <c r="L22" s="14" t="n"/>
-      <c r="M22" s="14" t="n"/>
-      <c r="N22" s="14" t="n"/>
-      <c r="O22" s="14" t="n"/>
-      <c r="P22" s="14" t="n"/>
-      <c r="Q22" s="14" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="12" t="n"/>
@@ -37516,61 +37342,41 @@
       <c r="C23" s="13" t="n"/>
       <c r="D23" s="13" t="n"/>
       <c r="E23" s="13" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="13" t="n"/>
+      <c r="F23" s="14" t="n"/>
+      <c r="G23" s="14" t="n"/>
       <c r="H23" s="14" t="n"/>
       <c r="I23" s="14" t="n"/>
       <c r="J23" s="14" t="n"/>
       <c r="K23" s="14" t="n"/>
-      <c r="L23" s="14" t="n"/>
-      <c r="M23" s="14" t="n"/>
-      <c r="N23" s="14" t="n"/>
-      <c r="O23" s="14" t="n"/>
-      <c r="P23" s="14" t="n"/>
-      <c r="Q23" s="14" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="L2:M2"/>
+  <mergeCells count="8">
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F2:G2"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="H2:I2"/>
-    <mergeCell ref="C2:G2"/>
     <mergeCell ref="J2:K2"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="F1:K1"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="H1:Q1"/>
   </mergeCells>
-  <dataValidations count="10">
-    <dataValidation sqref="H4:H20 J4:J20 L4:L20 N4:N20 P4:P20" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+  <dataValidations count="6">
+    <dataValidation sqref="F4:F20 H4:H20 J4:J20" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
       <formula1>'DEPOSIT_'!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="I4:I20 K4:K20 M4:M20 O4:O20 Q4:Q20" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+    <dataValidation sqref="G4:G20 I4:I20 K4:K20" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
       <formula1>'DEPOSIT_'!$B$1:$B$2</formula1>
     </dataValidation>
-    <dataValidation sqref="H4:H20 J4:J20 L4:L20 N4:N20 P4:P20" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+    <dataValidation sqref="F4:F20 H4:H20 J4:J20" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
       <formula1>'DEPOSIT_'!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="I4:I20 K4:K20 M4:M20 O4:O20 Q4:Q20" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+    <dataValidation sqref="G4:G20 I4:I20 K4:K20" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
       <formula1>'DEPOSIT_'!$B$1:$B$2</formula1>
     </dataValidation>
-    <dataValidation sqref="H4:H20 J4:J20 L4:L20 N4:N20 P4:P20" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+    <dataValidation sqref="F4:F20 H4:H20 J4:J20" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
       <formula1>'DEPOSIT_'!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="I4:I20 K4:K20 M4:M20 O4:O20 Q4:Q20" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>'DEPOSIT_'!$B$1:$B$2</formula1>
-    </dataValidation>
-    <dataValidation sqref="H4:H20 J4:J20 L4:L20 N4:N20 P4:P20" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>'DEPOSIT_'!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation sqref="I4:I20 K4:K20 M4:M20 O4:O20 Q4:Q20" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>'DEPOSIT_'!$B$1:$B$2</formula1>
-    </dataValidation>
-    <dataValidation sqref="H4:H20 J4:J20 L4:L20 N4:N20 P4:P20" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>'DEPOSIT_'!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation sqref="I4:I20 K4:K20 M4:M20 O4:O20 Q4:Q20" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+    <dataValidation sqref="G4:G20 I4:I20 K4:K20" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
       <formula1>'DEPOSIT_'!$B$1:$B$2</formula1>
     </dataValidation>
   </dataValidations>
